--- a/ESP32-Eurorack-Audio-BOM-RevD.xlsx
+++ b/ESP32-Eurorack-Audio-BOM-RevD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="220">
   <si>
     <t>Designator</t>
   </si>
@@ -484,9 +484,6 @@
     <t>Mouser</t>
   </si>
   <si>
-    <t>356-ESP32-WROB(16MB)</t>
-  </si>
-  <si>
     <t>MDF7-9S-2.54DSA(55)</t>
   </si>
   <si>
@@ -665,6 +662,18 @@
   </si>
   <si>
     <t>X7R 16V</t>
+  </si>
+  <si>
+    <t>356-ESP32WROIB(16MB)</t>
+  </si>
+  <si>
+    <t>Important use WROVER-B the non-B has boot issues</t>
+  </si>
+  <si>
+    <t>For IPEX use e.g. this antenna</t>
+  </si>
+  <si>
+    <t>https://de.aliexpress.com/item/1pcs-2-4Ghz-Antenna-SMA-male-3dbi-Zigbee-wifi-antenna-mini-short-rubber-aerial-SMA/32813612333.html?channel=twinner</t>
   </si>
 </sst>
 </file>
@@ -1526,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,7 +1547,7 @@
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1555,10 +1564,10 @@
         <v>155</v>
       </c>
       <c r="F1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1572,13 +1581,13 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" t="s">
         <v>157</v>
       </c>
-      <c r="G2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1595,7 +1604,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1609,10 +1618,10 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1626,10 +1635,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1643,10 +1652,10 @@
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1660,10 +1669,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1677,10 +1686,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1694,10 +1703,10 @@
         <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1711,13 +1720,13 @@
         <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1730,11 +1739,21 @@
       <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" t="s">
+        <v>217</v>
+      </c>
+      <c r="K11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1748,13 +1767,13 @@
         <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1768,10 +1787,10 @@
         <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1785,10 +1804,10 @@
         <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1802,10 +1821,10 @@
         <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1819,7 +1838,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1836,7 +1855,7 @@
         <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1853,7 +1872,7 @@
         <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1870,7 +1889,7 @@
         <v>50</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1887,7 +1906,7 @@
         <v>53</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1904,7 +1923,7 @@
         <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1921,10 +1940,10 @@
         <v>59</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1941,10 +1960,10 @@
         <v>61</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1961,10 +1980,10 @@
         <v>63</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1981,10 +2000,10 @@
         <v>65</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2001,10 +2020,10 @@
         <v>67</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2021,10 +2040,10 @@
         <v>69</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,10 +2060,10 @@
         <v>71</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2061,10 +2080,10 @@
         <v>73</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2081,10 +2100,10 @@
         <v>75</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2101,10 +2120,10 @@
         <v>77</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2121,10 +2140,10 @@
         <v>79</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2141,10 +2160,10 @@
         <v>81</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2161,10 +2180,10 @@
         <v>83</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2181,12 +2200,12 @@
         <v>600</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
@@ -2198,7 +2217,7 @@
         <v>85</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2212,13 +2231,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2235,10 +2254,10 @@
         <v>90</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2255,7 +2274,7 @@
         <v>93</v>
       </c>
       <c r="G39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2272,13 +2291,13 @@
         <v>67</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" t="s">
         <v>190</v>
       </c>
-      <c r="F40" t="s">
-        <v>191</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2295,13 +2314,13 @@
         <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F41" t="s">
         <v>190</v>
       </c>
-      <c r="F41" t="s">
-        <v>191</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2318,7 +2337,7 @@
         <v>99</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2335,7 +2354,7 @@
         <v>102</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2352,7 +2371,7 @@
         <v>105</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2369,7 +2388,7 @@
         <v>107</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2386,7 +2405,7 @@
         <v>110</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2403,7 +2422,7 @@
         <v>113</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2420,7 +2439,7 @@
         <v>116</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F48" s="5">
         <v>0.01</v>
@@ -2440,7 +2459,7 @@
         <v>118</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F49" s="5">
         <v>0.01</v>
@@ -2460,7 +2479,7 @@
         <v>120</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F50" s="5">
         <v>0.01</v>
@@ -2480,7 +2499,7 @@
         <v>220</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F51" s="5">
         <v>0.01</v>
@@ -2500,7 +2519,7 @@
         <v>68</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F52" s="5">
         <v>0.01</v>
@@ -2520,7 +2539,7 @@
         <v>125</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F53" s="5">
         <v>0.01</v>
@@ -2540,7 +2559,7 @@
         <v>127</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F54" s="5">
         <v>0.01</v>
@@ -2560,7 +2579,7 @@
         <v>129</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F55" s="5">
         <v>0.01</v>
@@ -2580,7 +2599,7 @@
         <v>131</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F56" s="5">
         <v>0.01</v>
@@ -2600,7 +2619,7 @@
         <v>133</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F57" s="5">
         <v>0.01</v>
@@ -2620,7 +2639,7 @@
         <v>135</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F58" s="5">
         <v>0.01</v>
@@ -2640,7 +2659,7 @@
         <v>137</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F59" s="5">
         <v>0.01</v>
@@ -2660,7 +2679,7 @@
         <v>139</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F60" s="5">
         <v>0.01</v>
@@ -2680,7 +2699,7 @@
         <v>141</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F61" s="5">
         <v>0.01</v>
@@ -2700,7 +2719,7 @@
         <v>143</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F62" s="5">
         <v>0.01</v>
@@ -2720,7 +2739,7 @@
         <v>145</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F63" s="5">
         <v>0.01</v>
@@ -2740,7 +2759,7 @@
         <v>148</v>
       </c>
       <c r="F64" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2757,10 +2776,10 @@
         <v>33</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2777,48 +2796,47 @@
         <v>153</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Murata-Electronics/GRM033C71C104KE14J?qs=sGAEpiMZZMsh%252b1woXyUXj%252biP5dSPIHTFp28DAT93PSI%3d"/>
-    <hyperlink ref="E11" r:id="rId2" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Espressif-Systems/ESP32-WROVER-B-16MB?qs=sGAEpiMZZMve4%2fbfQkoj%252bIB3rQw9HO2i9omYK9T7BxQ%3d"/>
-    <hyperlink ref="E12" r:id="rId3" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Murata-Electronics/GRM21BR70J106KA73L?qs=sGAEpiMZZMvsSlwiRhF8qn%2fMY8sF09EMrgGggYKjSFK9RS5%2fAY9PPQ%3d%3d"/>
-    <hyperlink ref="E10" r:id="rId4" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Wurth-Electronics/885012206034?qs=sGAEpiMZZMsh%252b1woXyUXj4jKQI6sNRw65AMGG68gm9g%3d"/>
-    <hyperlink ref="E5" r:id="rId5" display="https://www.mouser.de/QuickViewProdDetail.aspx?PartNum=743-INL-5AR30&amp;KeepThis=true&amp;TB_iframe=true&amp;height=375&amp;width=530&amp;QuickView=true"/>
-    <hyperlink ref="E13" r:id="rId6" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/AVX/F951C226KQAAQ2?qs=sGAEpiMZZMuEN2agSAc2poDz6ylZN984lrm0Z2rXgMkczTHhyGFitA%3d%3d"/>
-    <hyperlink ref="E14" r:id="rId7" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Wurth-Electronics/885012206055?qs=sGAEpiMZZMvzv9EAOJZmO4%2f25FEe%252b4NJHWp47uLB8Vo%3d"/>
-    <hyperlink ref="E16" r:id="rId8" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Vishay-Vitramon/VJ0603Y102KXQCW1BC?qs=sGAEpiMZZMukHu%252bjC5l7YXcOXwRpPuU9ldByix43i9c%3d"/>
-    <hyperlink ref="E18" r:id="rId9" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Texas-Instruments/LM4040B10IDBZR?qs=sGAEpiMZZMuBck1X%252b7j9fKfVPQnwfR6x2dat2U0RFTk%3d"/>
-    <hyperlink ref="E19" r:id="rId10" display="https://www.mouser.de/ProductDetail/Molex/105017-0001?qs=sGAEpiMZZMulM8LPOQ%252bykxkHE97o%2fWJn1YkS%2fQp33f4%3d"/>
-    <hyperlink ref="E20" r:id="rId11" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Hirose-Connector/DM3D-SF?qs=sGAEpiMZZMuJakaoiLiBpnXBVL%252bdeeUjV4z8Ehv1eJI%3d"/>
-    <hyperlink ref="G22" r:id="rId12"/>
-    <hyperlink ref="G23" r:id="rId13"/>
-    <hyperlink ref="G24" r:id="rId14"/>
-    <hyperlink ref="G25" r:id="rId15"/>
-    <hyperlink ref="G26" r:id="rId16"/>
-    <hyperlink ref="G27" r:id="rId17"/>
-    <hyperlink ref="G28" r:id="rId18"/>
-    <hyperlink ref="G29" r:id="rId19"/>
-    <hyperlink ref="G30" r:id="rId20"/>
-    <hyperlink ref="G31" r:id="rId21"/>
-    <hyperlink ref="G32" r:id="rId22"/>
-    <hyperlink ref="G33" r:id="rId23"/>
-    <hyperlink ref="G34" r:id="rId24"/>
-    <hyperlink ref="G37" r:id="rId25"/>
-    <hyperlink ref="G38" r:id="rId26"/>
-    <hyperlink ref="E43" r:id="rId27" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Cirrus-Logic/WM8731SEDS-V?qs=sGAEpiMZZMthNezIpKscMWquczdXLZMI"/>
-    <hyperlink ref="E44" r:id="rId28" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Texas-Instruments/TL074CPWR?qs=sGAEpiMZZMtCHixnSjNA6CumnoLUElGjQLo24A7lcQA%3d"/>
-    <hyperlink ref="E45" r:id="rId29" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Microchip-Technology/MCP6004-I-ST?qs=sGAEpiMZZMtCHixnSjNA6Nk%2f608BUpzNyM7mdqg5KqY%3d"/>
-    <hyperlink ref="E46" r:id="rId30" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Microchip-Technology/MCP3208T-CI-SL?qs=sGAEpiMZZMvTvDTV69d2Qq3ZmnJXANz1FLQTOZoNzBw%3d"/>
-    <hyperlink ref="E47" r:id="rId31" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/ABRACON/ABLS2-112896MHz-B4Y-T?qs=sGAEpiMZZMsBj6bBr9Q9aQgLRzreR480Tr56tXTEfnHTyeb1GaNG2g%3d%3d"/>
-    <hyperlink ref="E49" r:id="rId32" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Bourns/CR0603-FX-2212ELF?qs=sGAEpiMZZMvdGkrng054t%252bRNGJdg958RTwL2gaq%2fFFo%3d"/>
-    <hyperlink ref="E50" r:id="rId33" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Yageo/RC0603FR-0747K5L?qs=sGAEpiMZZMukHu%252bjC5l7YfGIerj%2fLQjmXwg5CVqX%2few%3d"/>
-    <hyperlink ref="E62" r:id="rId34" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Yageo/RC0603FR-07100KL?qs=sGAEpiMZZMtlubZbdhIBILKq4xlbM%2fwM1YFQb%252b0IO0Y%3d"/>
-    <hyperlink ref="E59" r:id="rId35" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Bourns/CR0603-FX-4702ELF?qs=sGAEpiMZZMu61qfTUdNhG6LqqFhkr6pU%252bpTYg0pc3xk%3d"/>
+    <hyperlink ref="E12" r:id="rId2" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Murata-Electronics/GRM21BR70J106KA73L?qs=sGAEpiMZZMvsSlwiRhF8qn%2fMY8sF09EMrgGggYKjSFK9RS5%2fAY9PPQ%3d%3d"/>
+    <hyperlink ref="E10" r:id="rId3" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Wurth-Electronics/885012206034?qs=sGAEpiMZZMsh%252b1woXyUXj4jKQI6sNRw65AMGG68gm9g%3d"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://www.mouser.de/QuickViewProdDetail.aspx?PartNum=743-INL-5AR30&amp;KeepThis=true&amp;TB_iframe=true&amp;height=375&amp;width=530&amp;QuickView=true"/>
+    <hyperlink ref="E13" r:id="rId5" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/AVX/F951C226KQAAQ2?qs=sGAEpiMZZMuEN2agSAc2poDz6ylZN984lrm0Z2rXgMkczTHhyGFitA%3d%3d"/>
+    <hyperlink ref="E14" r:id="rId6" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Wurth-Electronics/885012206055?qs=sGAEpiMZZMvzv9EAOJZmO4%2f25FEe%252b4NJHWp47uLB8Vo%3d"/>
+    <hyperlink ref="E16" r:id="rId7" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Vishay-Vitramon/VJ0603Y102KXQCW1BC?qs=sGAEpiMZZMukHu%252bjC5l7YXcOXwRpPuU9ldByix43i9c%3d"/>
+    <hyperlink ref="E18" r:id="rId8" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Texas-Instruments/LM4040B10IDBZR?qs=sGAEpiMZZMuBck1X%252b7j9fKfVPQnwfR6x2dat2U0RFTk%3d"/>
+    <hyperlink ref="E19" r:id="rId9" display="https://www.mouser.de/ProductDetail/Molex/105017-0001?qs=sGAEpiMZZMulM8LPOQ%252bykxkHE97o%2fWJn1YkS%2fQp33f4%3d"/>
+    <hyperlink ref="E20" r:id="rId10" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Hirose-Connector/DM3D-SF?qs=sGAEpiMZZMuJakaoiLiBpnXBVL%252bdeeUjV4z8Ehv1eJI%3d"/>
+    <hyperlink ref="G22" r:id="rId11"/>
+    <hyperlink ref="G23" r:id="rId12"/>
+    <hyperlink ref="G24" r:id="rId13"/>
+    <hyperlink ref="G25" r:id="rId14"/>
+    <hyperlink ref="G26" r:id="rId15"/>
+    <hyperlink ref="G27" r:id="rId16"/>
+    <hyperlink ref="G28" r:id="rId17"/>
+    <hyperlink ref="G29" r:id="rId18"/>
+    <hyperlink ref="G30" r:id="rId19"/>
+    <hyperlink ref="G31" r:id="rId20"/>
+    <hyperlink ref="G32" r:id="rId21"/>
+    <hyperlink ref="G33" r:id="rId22"/>
+    <hyperlink ref="G34" r:id="rId23"/>
+    <hyperlink ref="G37" r:id="rId24"/>
+    <hyperlink ref="G38" r:id="rId25"/>
+    <hyperlink ref="E43" r:id="rId26" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Cirrus-Logic/WM8731SEDS-V?qs=sGAEpiMZZMthNezIpKscMWquczdXLZMI"/>
+    <hyperlink ref="E44" r:id="rId27" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Texas-Instruments/TL074CPWR?qs=sGAEpiMZZMtCHixnSjNA6CumnoLUElGjQLo24A7lcQA%3d"/>
+    <hyperlink ref="E45" r:id="rId28" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Microchip-Technology/MCP6004-I-ST?qs=sGAEpiMZZMtCHixnSjNA6Nk%2f608BUpzNyM7mdqg5KqY%3d"/>
+    <hyperlink ref="E46" r:id="rId29" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Microchip-Technology/MCP3208T-CI-SL?qs=sGAEpiMZZMvTvDTV69d2Qq3ZmnJXANz1FLQTOZoNzBw%3d"/>
+    <hyperlink ref="E47" r:id="rId30" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/ABRACON/ABLS2-112896MHz-B4Y-T?qs=sGAEpiMZZMsBj6bBr9Q9aQgLRzreR480Tr56tXTEfnHTyeb1GaNG2g%3d%3d"/>
+    <hyperlink ref="E49" r:id="rId31" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Bourns/CR0603-FX-2212ELF?qs=sGAEpiMZZMvdGkrng054t%252bRNGJdg958RTwL2gaq%2fFFo%3d"/>
+    <hyperlink ref="E50" r:id="rId32" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Yageo/RC0603FR-0747K5L?qs=sGAEpiMZZMukHu%252bjC5l7YfGIerj%2fLQjmXwg5CVqX%2few%3d"/>
+    <hyperlink ref="E62" r:id="rId33" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Yageo/RC0603FR-07100KL?qs=sGAEpiMZZMtlubZbdhIBILKq4xlbM%2fwM1YFQb%252b0IO0Y%3d"/>
+    <hyperlink ref="E59" r:id="rId34" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Bourns/CR0603-FX-4702ELF?qs=sGAEpiMZZMu61qfTUdNhG6LqqFhkr6pU%252bpTYg0pc3xk%3d"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId35"/>
 </worksheet>
 </file>
--- a/ESP32-Eurorack-Audio-BOM-RevD.xlsx
+++ b/ESP32-Eurorack-Audio-BOM-RevD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="223">
   <si>
     <t>Designator</t>
   </si>
@@ -499,9 +499,6 @@
     <t>X7R</t>
   </si>
   <si>
-    <t>710-885012206034</t>
-  </si>
-  <si>
     <t>634-CP2102NA01GQFN24</t>
   </si>
   <si>
@@ -674,13 +671,25 @@
   </si>
   <si>
     <t>https://de.aliexpress.com/item/1pcs-2-4Ghz-Antenna-SMA-male-3dbi-Zigbee-wifi-antenna-mini-short-rubber-aerial-SMA/32813612333.html?channel=twinner</t>
+  </si>
+  <si>
+    <t>Or black</t>
+  </si>
+  <si>
+    <t>603-CC603KRX7R7BB105</t>
+  </si>
+  <si>
+    <t>941-C5SMFRJECT0W0BB2</t>
+  </si>
+  <si>
+    <t>Larger angle and intensity:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,6 +848,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1185,13 +1201,14 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1537,14 +1554,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1618,7 +1636,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1635,7 +1653,13 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="G5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1652,7 +1676,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1669,7 +1693,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1686,7 +1710,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1703,7 +1727,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1719,12 +1743,13 @@
       <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>161</v>
+      <c r="E10" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="F10" t="s">
         <v>160</v>
       </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1740,17 +1765,17 @@
         <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="s">
+        <v>216</v>
+      </c>
+      <c r="K11" t="s">
         <v>217</v>
       </c>
-      <c r="K11" t="s">
+      <c r="N11" t="s">
         <v>218</v>
-      </c>
-      <c r="N11" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1787,7 +1812,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1804,7 +1829,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1821,7 +1846,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1838,7 +1863,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1855,7 +1880,7 @@
         <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1872,7 +1897,7 @@
         <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1889,7 +1914,7 @@
         <v>50</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1906,7 +1931,7 @@
         <v>53</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1923,7 +1948,7 @@
         <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1940,10 +1965,10 @@
         <v>59</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1960,10 +1985,10 @@
         <v>61</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1980,10 +2005,10 @@
         <v>63</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2000,10 +2025,10 @@
         <v>65</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2020,10 +2045,10 @@
         <v>67</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2040,10 +2065,10 @@
         <v>69</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2060,10 +2085,10 @@
         <v>71</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2080,10 +2105,10 @@
         <v>73</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2100,10 +2125,10 @@
         <v>75</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2120,10 +2145,10 @@
         <v>77</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2140,13 +2165,13 @@
         <v>79</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -2160,13 +2185,13 @@
         <v>81</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -2180,13 +2205,13 @@
         <v>83</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -2200,12 +2225,12 @@
         <v>600</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
@@ -2217,10 +2242,10 @@
         <v>85</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -2231,16 +2256,16 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -2254,13 +2279,13 @@
         <v>90</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -2274,10 +2299,10 @@
         <v>93</v>
       </c>
       <c r="G39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -2291,16 +2316,22 @@
         <v>67</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" t="s">
         <v>189</v>
       </c>
-      <c r="F40" t="s">
-        <v>190</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J40" s="6">
+        <v>826000011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -2314,16 +2345,19 @@
         <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" t="s">
         <v>189</v>
       </c>
-      <c r="F41" t="s">
-        <v>190</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="J41" s="6">
+        <v>826000011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -2337,10 +2371,10 @@
         <v>99</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -2354,10 +2388,10 @@
         <v>102</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -2371,10 +2405,10 @@
         <v>105</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -2388,10 +2422,10 @@
         <v>107</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -2405,10 +2439,10 @@
         <v>110</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>111</v>
       </c>
@@ -2422,10 +2456,10 @@
         <v>113</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>114</v>
       </c>
@@ -2439,7 +2473,7 @@
         <v>116</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F48" s="5">
         <v>0.01</v>
@@ -2459,7 +2493,7 @@
         <v>118</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F49" s="5">
         <v>0.01</v>
@@ -2479,7 +2513,7 @@
         <v>120</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F50" s="5">
         <v>0.01</v>
@@ -2499,7 +2533,7 @@
         <v>220</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F51" s="5">
         <v>0.01</v>
@@ -2519,7 +2553,7 @@
         <v>68</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F52" s="5">
         <v>0.01</v>
@@ -2539,7 +2573,7 @@
         <v>125</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F53" s="5">
         <v>0.01</v>
@@ -2559,7 +2593,7 @@
         <v>127</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F54" s="5">
         <v>0.01</v>
@@ -2579,7 +2613,7 @@
         <v>129</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F55" s="5">
         <v>0.01</v>
@@ -2599,7 +2633,7 @@
         <v>131</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F56" s="5">
         <v>0.01</v>
@@ -2619,7 +2653,7 @@
         <v>133</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F57" s="5">
         <v>0.01</v>
@@ -2639,7 +2673,7 @@
         <v>135</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F58" s="5">
         <v>0.01</v>
@@ -2659,7 +2693,7 @@
         <v>137</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F59" s="5">
         <v>0.01</v>
@@ -2679,7 +2713,7 @@
         <v>139</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F60" s="5">
         <v>0.01</v>
@@ -2699,7 +2733,7 @@
         <v>141</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F61" s="5">
         <v>0.01</v>
@@ -2719,7 +2753,7 @@
         <v>143</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F62" s="5">
         <v>0.01</v>
@@ -2739,7 +2773,7 @@
         <v>145</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F63" s="5">
         <v>0.01</v>
@@ -2759,7 +2793,7 @@
         <v>148</v>
       </c>
       <c r="F64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2776,10 +2810,10 @@
         <v>33</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2796,47 +2830,46 @@
         <v>153</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Murata-Electronics/GRM033C71C104KE14J?qs=sGAEpiMZZMsh%252b1woXyUXj%252biP5dSPIHTFp28DAT93PSI%3d"/>
     <hyperlink ref="E12" r:id="rId2" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Murata-Electronics/GRM21BR70J106KA73L?qs=sGAEpiMZZMvsSlwiRhF8qn%2fMY8sF09EMrgGggYKjSFK9RS5%2fAY9PPQ%3d%3d"/>
-    <hyperlink ref="E10" r:id="rId3" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Wurth-Electronics/885012206034?qs=sGAEpiMZZMsh%252b1woXyUXj4jKQI6sNRw65AMGG68gm9g%3d"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://www.mouser.de/QuickViewProdDetail.aspx?PartNum=743-INL-5AR30&amp;KeepThis=true&amp;TB_iframe=true&amp;height=375&amp;width=530&amp;QuickView=true"/>
-    <hyperlink ref="E13" r:id="rId5" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/AVX/F951C226KQAAQ2?qs=sGAEpiMZZMuEN2agSAc2poDz6ylZN984lrm0Z2rXgMkczTHhyGFitA%3d%3d"/>
-    <hyperlink ref="E14" r:id="rId6" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Wurth-Electronics/885012206055?qs=sGAEpiMZZMvzv9EAOJZmO4%2f25FEe%252b4NJHWp47uLB8Vo%3d"/>
-    <hyperlink ref="E16" r:id="rId7" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Vishay-Vitramon/VJ0603Y102KXQCW1BC?qs=sGAEpiMZZMukHu%252bjC5l7YXcOXwRpPuU9ldByix43i9c%3d"/>
-    <hyperlink ref="E18" r:id="rId8" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Texas-Instruments/LM4040B10IDBZR?qs=sGAEpiMZZMuBck1X%252b7j9fKfVPQnwfR6x2dat2U0RFTk%3d"/>
-    <hyperlink ref="E19" r:id="rId9" display="https://www.mouser.de/ProductDetail/Molex/105017-0001?qs=sGAEpiMZZMulM8LPOQ%252bykxkHE97o%2fWJn1YkS%2fQp33f4%3d"/>
-    <hyperlink ref="E20" r:id="rId10" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Hirose-Connector/DM3D-SF?qs=sGAEpiMZZMuJakaoiLiBpnXBVL%252bdeeUjV4z8Ehv1eJI%3d"/>
-    <hyperlink ref="G22" r:id="rId11"/>
-    <hyperlink ref="G23" r:id="rId12"/>
-    <hyperlink ref="G24" r:id="rId13"/>
-    <hyperlink ref="G25" r:id="rId14"/>
-    <hyperlink ref="G26" r:id="rId15"/>
-    <hyperlink ref="G27" r:id="rId16"/>
-    <hyperlink ref="G28" r:id="rId17"/>
-    <hyperlink ref="G29" r:id="rId18"/>
-    <hyperlink ref="G30" r:id="rId19"/>
-    <hyperlink ref="G31" r:id="rId20"/>
-    <hyperlink ref="G32" r:id="rId21"/>
-    <hyperlink ref="G33" r:id="rId22"/>
-    <hyperlink ref="G34" r:id="rId23"/>
-    <hyperlink ref="G37" r:id="rId24"/>
-    <hyperlink ref="G38" r:id="rId25"/>
-    <hyperlink ref="E43" r:id="rId26" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Cirrus-Logic/WM8731SEDS-V?qs=sGAEpiMZZMthNezIpKscMWquczdXLZMI"/>
-    <hyperlink ref="E44" r:id="rId27" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Texas-Instruments/TL074CPWR?qs=sGAEpiMZZMtCHixnSjNA6CumnoLUElGjQLo24A7lcQA%3d"/>
-    <hyperlink ref="E45" r:id="rId28" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Microchip-Technology/MCP6004-I-ST?qs=sGAEpiMZZMtCHixnSjNA6Nk%2f608BUpzNyM7mdqg5KqY%3d"/>
-    <hyperlink ref="E46" r:id="rId29" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Microchip-Technology/MCP3208T-CI-SL?qs=sGAEpiMZZMvTvDTV69d2Qq3ZmnJXANz1FLQTOZoNzBw%3d"/>
-    <hyperlink ref="E47" r:id="rId30" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/ABRACON/ABLS2-112896MHz-B4Y-T?qs=sGAEpiMZZMsBj6bBr9Q9aQgLRzreR480Tr56tXTEfnHTyeb1GaNG2g%3d%3d"/>
-    <hyperlink ref="E49" r:id="rId31" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Bourns/CR0603-FX-2212ELF?qs=sGAEpiMZZMvdGkrng054t%252bRNGJdg958RTwL2gaq%2fFFo%3d"/>
-    <hyperlink ref="E50" r:id="rId32" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Yageo/RC0603FR-0747K5L?qs=sGAEpiMZZMukHu%252bjC5l7YfGIerj%2fLQjmXwg5CVqX%2few%3d"/>
-    <hyperlink ref="E62" r:id="rId33" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Yageo/RC0603FR-07100KL?qs=sGAEpiMZZMtlubZbdhIBILKq4xlbM%2fwM1YFQb%252b0IO0Y%3d"/>
-    <hyperlink ref="E59" r:id="rId34" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Bourns/CR0603-FX-4702ELF?qs=sGAEpiMZZMu61qfTUdNhG6LqqFhkr6pU%252bpTYg0pc3xk%3d"/>
+    <hyperlink ref="E5" r:id="rId3" display="https://www.mouser.de/QuickViewProdDetail.aspx?PartNum=743-INL-5AR30&amp;KeepThis=true&amp;TB_iframe=true&amp;height=375&amp;width=530&amp;QuickView=true"/>
+    <hyperlink ref="E13" r:id="rId4" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/AVX/F951C226KQAAQ2?qs=sGAEpiMZZMuEN2agSAc2poDz6ylZN984lrm0Z2rXgMkczTHhyGFitA%3d%3d"/>
+    <hyperlink ref="E14" r:id="rId5" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Wurth-Electronics/885012206055?qs=sGAEpiMZZMvzv9EAOJZmO4%2f25FEe%252b4NJHWp47uLB8Vo%3d"/>
+    <hyperlink ref="E16" r:id="rId6" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Vishay-Vitramon/VJ0603Y102KXQCW1BC?qs=sGAEpiMZZMukHu%252bjC5l7YXcOXwRpPuU9ldByix43i9c%3d"/>
+    <hyperlink ref="E18" r:id="rId7" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Texas-Instruments/LM4040B10IDBZR?qs=sGAEpiMZZMuBck1X%252b7j9fKfVPQnwfR6x2dat2U0RFTk%3d"/>
+    <hyperlink ref="E19" r:id="rId8" display="https://www.mouser.de/ProductDetail/Molex/105017-0001?qs=sGAEpiMZZMulM8LPOQ%252bykxkHE97o%2fWJn1YkS%2fQp33f4%3d"/>
+    <hyperlink ref="E20" r:id="rId9" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Hirose-Connector/DM3D-SF?qs=sGAEpiMZZMuJakaoiLiBpnXBVL%252bdeeUjV4z8Ehv1eJI%3d"/>
+    <hyperlink ref="G22" r:id="rId10"/>
+    <hyperlink ref="G23" r:id="rId11"/>
+    <hyperlink ref="G24" r:id="rId12"/>
+    <hyperlink ref="G25" r:id="rId13"/>
+    <hyperlink ref="G26" r:id="rId14"/>
+    <hyperlink ref="G27" r:id="rId15"/>
+    <hyperlink ref="G28" r:id="rId16"/>
+    <hyperlink ref="G29" r:id="rId17"/>
+    <hyperlink ref="G30" r:id="rId18"/>
+    <hyperlink ref="G31" r:id="rId19"/>
+    <hyperlink ref="G32" r:id="rId20"/>
+    <hyperlink ref="G33" r:id="rId21"/>
+    <hyperlink ref="G34" r:id="rId22"/>
+    <hyperlink ref="G37" r:id="rId23"/>
+    <hyperlink ref="G38" r:id="rId24"/>
+    <hyperlink ref="E43" r:id="rId25" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Cirrus-Logic/WM8731SEDS-V?qs=sGAEpiMZZMthNezIpKscMWquczdXLZMI"/>
+    <hyperlink ref="E44" r:id="rId26" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Texas-Instruments/TL074CPWR?qs=sGAEpiMZZMtCHixnSjNA6CumnoLUElGjQLo24A7lcQA%3d"/>
+    <hyperlink ref="E45" r:id="rId27" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Microchip-Technology/MCP6004-I-ST?qs=sGAEpiMZZMtCHixnSjNA6Nk%2f608BUpzNyM7mdqg5KqY%3d"/>
+    <hyperlink ref="E46" r:id="rId28" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Microchip-Technology/MCP3208T-CI-SL?qs=sGAEpiMZZMvTvDTV69d2Qq3ZmnJXANz1FLQTOZoNzBw%3d"/>
+    <hyperlink ref="E47" r:id="rId29" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/ABRACON/ABLS2-112896MHz-B4Y-T?qs=sGAEpiMZZMsBj6bBr9Q9aQgLRzreR480Tr56tXTEfnHTyeb1GaNG2g%3d%3d"/>
+    <hyperlink ref="E49" r:id="rId30" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Bourns/CR0603-FX-2212ELF?qs=sGAEpiMZZMvdGkrng054t%252bRNGJdg958RTwL2gaq%2fFFo%3d"/>
+    <hyperlink ref="E50" r:id="rId31" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Yageo/RC0603FR-0747K5L?qs=sGAEpiMZZMukHu%252bjC5l7YfGIerj%2fLQjmXwg5CVqX%2few%3d"/>
+    <hyperlink ref="E62" r:id="rId32" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Yageo/RC0603FR-07100KL?qs=sGAEpiMZZMtlubZbdhIBILKq4xlbM%2fwM1YFQb%252b0IO0Y%3d"/>
+    <hyperlink ref="E59" r:id="rId33" tooltip="Hier klicken, um zusätzliche Informationen über dieses Produkt anzuzeigen." display="https://www.mouser.de/ProductDetail/Bourns/CR0603-FX-4702ELF?qs=sGAEpiMZZMu61qfTUdNhG6LqqFhkr6pU%252bpTYg0pc3xk%3d"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId34"/>
 </worksheet>
 </file>